--- a/level_info.xlsx
+++ b/level_info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2Levels" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,6 +31,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK JP Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -114,13 +115,13 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -157,21 +158,21 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>4</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>3</v>
@@ -179,19 +180,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
@@ -212,7 +213,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -246,7 +247,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>

--- a/level_info.xlsx
+++ b/level_info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\multicell_quan_20180604\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\StudyBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -375,12 +375,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1.77</v>
+      </c>
+      <c r="B1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>61155.279079534201</v>
+      </c>
+      <c r="B2">
+        <v>3173763.6428455398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>12811.7146147487</v>
+      </c>
+      <c r="B3">
+        <v>278687.85785854899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4775,7 +4810,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
